--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2767526.080703028</v>
+        <v>-2770221.885416021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9502848.340145638</v>
+        <v>9502848.340145636</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>353.3941251634859</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>51.22501080204972</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0471644997601</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>295.8924149720586</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.41291089516375</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>112.046199498389</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.4670786893276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0052070666065</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>90.24507178141079</v>
       </c>
       <c r="I12" t="n">
-        <v>11.00225329990619</v>
+        <v>11.0022532999062</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.46214624039</v>
+        <v>91.46214624039001</v>
       </c>
       <c r="S13" t="n">
         <v>190.7496152372945</v>
       </c>
       <c r="T13" t="n">
-        <v>219.789365163363</v>
+        <v>128.4401514399779</v>
       </c>
       <c r="U13" t="n">
-        <v>226.2371732213036</v>
+        <v>286.2149073445986</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>44.67563397351631</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>154.5087590229275</v>
+        <v>410.9319515078002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.7124899181491</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.97116202262887</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.4207834441023</v>
       </c>
       <c r="T14" t="n">
         <v>203.962733817023</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>69.99479818957965</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0303952252506</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7957972140067</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49036299405179</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.13839935128098</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8489636427894</v>
       </c>
       <c r="T16" t="n">
-        <v>66.29299592545036</v>
+        <v>219.5685481318465</v>
       </c>
       <c r="U16" t="n">
         <v>286.2120884037705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,10 +1853,10 @@
         <v>334.7477653688958</v>
       </c>
       <c r="F17" t="n">
-        <v>359.6934410383455</v>
+        <v>359.6934410383454</v>
       </c>
       <c r="G17" t="n">
-        <v>363.7493468044343</v>
+        <v>363.7493468044342</v>
       </c>
       <c r="H17" t="n">
         <v>247.5298852147831</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.23817874073633</v>
+        <v>62.23817874073632</v>
       </c>
       <c r="T17" t="n">
         <v>156.7801291136571</v>
@@ -1901,16 +1901,16 @@
         <v>203.8133853238838</v>
       </c>
       <c r="V17" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W17" t="n">
-        <v>302.0583640140471</v>
+        <v>302.058364014047</v>
       </c>
       <c r="X17" t="n">
-        <v>322.5484959751031</v>
+        <v>322.548495975103</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.0553339526868</v>
+        <v>339.0553339526876</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.0049404801352</v>
       </c>
       <c r="H18" t="n">
-        <v>89.64971679732054</v>
+        <v>89.64971679732052</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50313795295391</v>
+        <v>10.02052664520046</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.4826113077538423</v>
       </c>
       <c r="S18" t="n">
         <v>128.2451349072393</v>
@@ -2017,10 +2017,10 @@
         <v>118.8477905218846</v>
       </c>
       <c r="H19" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064072</v>
       </c>
       <c r="I19" t="n">
-        <v>49.30775829068582</v>
+        <v>49.30775829068624</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95579464791501</v>
+        <v>41.955794647915</v>
       </c>
       <c r="S19" t="n">
         <v>142.6663589394234</v>
@@ -2096,7 +2096,7 @@
         <v>363.7493468044342</v>
       </c>
       <c r="H20" t="n">
-        <v>247.5298852147831</v>
+        <v>247.529885214784</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95579464791486</v>
+        <v>41.95579464791501</v>
       </c>
       <c r="S22" t="n">
         <v>142.6663589394234</v>
@@ -2293,7 +2293,7 @@
         <v>172.3859434284805</v>
       </c>
       <c r="U22" t="n">
-        <v>239.0294837004043</v>
+        <v>239.0294837004045</v>
       </c>
       <c r="V22" t="n">
         <v>204.955038620462</v>
@@ -2327,10 +2327,10 @@
         <v>334.7477653688958</v>
       </c>
       <c r="F23" t="n">
-        <v>359.6934410383455</v>
+        <v>359.6934410383454</v>
       </c>
       <c r="G23" t="n">
-        <v>363.7493468044343</v>
+        <v>363.7493468044342</v>
       </c>
       <c r="H23" t="n">
         <v>247.5298852147831</v>
@@ -2375,13 +2375,13 @@
         <v>203.8133853238838</v>
       </c>
       <c r="V23" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W23" t="n">
-        <v>302.0583640140471</v>
+        <v>302.058364014047</v>
       </c>
       <c r="X23" t="n">
-        <v>322.5484959751031</v>
+        <v>322.548495975103</v>
       </c>
       <c r="Y23" t="n">
         <v>339.0553339526876</v>
@@ -2606,13 +2606,13 @@
         <v>62.23817874073633</v>
       </c>
       <c r="T26" t="n">
-        <v>156.7801291136571</v>
+        <v>156.780129113657</v>
       </c>
       <c r="U26" t="n">
-        <v>203.8133853238838</v>
+        <v>203.8133853238837</v>
       </c>
       <c r="V26" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W26" t="n">
         <v>302.058364014047</v>
@@ -2719,19 +2719,19 @@
         <v>101.4328683148464</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2513579432032</v>
+        <v>99.25135794320319</v>
       </c>
       <c r="F28" t="n">
-        <v>98.23844331956528</v>
+        <v>98.23844331956526</v>
       </c>
       <c r="G28" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H28" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064072</v>
       </c>
       <c r="I28" t="n">
-        <v>49.30775829068582</v>
+        <v>49.3077582906858</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95579464791501</v>
+        <v>41.95579464791498</v>
       </c>
       <c r="S28" t="n">
         <v>142.6663589394234</v>
@@ -2767,7 +2767,7 @@
         <v>172.3859434284805</v>
       </c>
       <c r="U28" t="n">
-        <v>239.0294837004041</v>
+        <v>239.0294837004039</v>
       </c>
       <c r="V28" t="n">
         <v>204.955038620462</v>
@@ -2843,13 +2843,13 @@
         <v>62.23817874073633</v>
       </c>
       <c r="T29" t="n">
-        <v>156.7801291136571</v>
+        <v>156.780129113657</v>
       </c>
       <c r="U29" t="n">
-        <v>203.8133853238838</v>
+        <v>203.8133853238837</v>
       </c>
       <c r="V29" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W29" t="n">
         <v>302.058364014047</v>
@@ -2889,7 +2889,7 @@
         <v>89.64971679732054</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50313795295391</v>
+        <v>10.0205266452</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.4826113077538707</v>
       </c>
       <c r="S30" t="n">
         <v>128.2451349072393</v>
@@ -2956,19 +2956,19 @@
         <v>101.4328683148464</v>
       </c>
       <c r="E31" t="n">
-        <v>99.2513579432032</v>
+        <v>99.25135794320319</v>
       </c>
       <c r="F31" t="n">
-        <v>98.23844331956528</v>
+        <v>98.23844331956526</v>
       </c>
       <c r="G31" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H31" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064124</v>
       </c>
       <c r="I31" t="n">
-        <v>49.30775829068582</v>
+        <v>49.30775829068579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95579464791531</v>
+        <v>41.95579464791498</v>
       </c>
       <c r="S31" t="n">
         <v>142.6663589394234</v>
@@ -3038,10 +3038,10 @@
         <v>334.7477653688958</v>
       </c>
       <c r="F32" t="n">
-        <v>359.6934410383455</v>
+        <v>359.6934410383454</v>
       </c>
       <c r="G32" t="n">
-        <v>363.7493468044343</v>
+        <v>363.7493468044342</v>
       </c>
       <c r="H32" t="n">
         <v>247.5298852147831</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.23817874073634</v>
+        <v>62.23817874073632</v>
       </c>
       <c r="T32" t="n">
         <v>156.7801291136571</v>
@@ -3086,13 +3086,13 @@
         <v>203.8133853238838</v>
       </c>
       <c r="V32" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W32" t="n">
-        <v>302.0583640140471</v>
+        <v>302.058364014047</v>
       </c>
       <c r="X32" t="n">
-        <v>322.5484959751031</v>
+        <v>322.548495975103</v>
       </c>
       <c r="Y32" t="n">
         <v>339.0553339526876</v>
@@ -3126,7 +3126,7 @@
         <v>89.64971679732054</v>
       </c>
       <c r="I33" t="n">
-        <v>10.5031379529539</v>
+        <v>10.0205266452</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.4826113077538707</v>
       </c>
       <c r="S33" t="n">
         <v>128.2451349072393</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.6493754785714</v>
+        <v>132.6493754785713</v>
       </c>
       <c r="C34" t="n">
         <v>120.0642163952619</v>
@@ -3193,19 +3193,19 @@
         <v>101.4328683148464</v>
       </c>
       <c r="E34" t="n">
-        <v>99.25135794320322</v>
+        <v>99.2513579432032</v>
       </c>
       <c r="F34" t="n">
-        <v>98.23844331956529</v>
+        <v>98.23844331956528</v>
       </c>
       <c r="G34" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H34" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064072</v>
       </c>
       <c r="I34" t="n">
-        <v>49.30775829068584</v>
+        <v>49.30775829068579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95579464791486</v>
+        <v>41.95579464791501</v>
       </c>
       <c r="S34" t="n">
         <v>142.6663589394235</v>
@@ -3241,19 +3241,19 @@
         <v>172.3859434284805</v>
       </c>
       <c r="U34" t="n">
-        <v>239.0294837004047</v>
+        <v>239.0294837004045</v>
       </c>
       <c r="V34" t="n">
-        <v>204.9550386204621</v>
+        <v>204.955038620462</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3403936332251</v>
+        <v>239.340393633225</v>
       </c>
       <c r="X34" t="n">
         <v>178.5270506856712</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.4020486487289</v>
+        <v>171.4020486487288</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2381787407363</v>
+        <v>62.23817874073631</v>
       </c>
       <c r="T35" t="n">
         <v>156.780129113657</v>
@@ -3439,10 +3439,10 @@
         <v>118.8477905218846</v>
       </c>
       <c r="H37" t="n">
-        <v>97.6131925106407</v>
+        <v>97.61319251064069</v>
       </c>
       <c r="I37" t="n">
-        <v>49.30775829068579</v>
+        <v>49.3077582906858</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95579464791498</v>
+        <v>41.95579464791531</v>
       </c>
       <c r="S37" t="n">
-        <v>142.6663589394231</v>
+        <v>142.6663589394234</v>
       </c>
       <c r="T37" t="n">
-        <v>172.3859434284805</v>
+        <v>172.3859434284803</v>
       </c>
       <c r="U37" t="n">
-        <v>239.0294837004054</v>
+        <v>239.0294837004047</v>
       </c>
       <c r="V37" t="n">
         <v>204.955038620462</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.23817874073633</v>
+        <v>62.23817874073637</v>
       </c>
       <c r="T38" t="n">
         <v>156.7801291136571</v>
@@ -3600,7 +3600,7 @@
         <v>89.64971679732054</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50313795295391</v>
+        <v>10.02052664519998</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.4826113077538707</v>
       </c>
       <c r="S39" t="n">
         <v>128.2451349072393</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.6493754785713</v>
+        <v>132.6493754785714</v>
       </c>
       <c r="C40" t="n">
         <v>120.0642163952619</v>
@@ -3667,19 +3667,19 @@
         <v>101.4328683148464</v>
       </c>
       <c r="E40" t="n">
-        <v>99.2513579432032</v>
+        <v>99.25135794320323</v>
       </c>
       <c r="F40" t="n">
-        <v>98.23844331956528</v>
+        <v>98.23844331956531</v>
       </c>
       <c r="G40" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064074</v>
       </c>
       <c r="I40" t="n">
-        <v>49.30775829068582</v>
+        <v>49.30775829068594</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95579464791501</v>
+        <v>41.95579464791505</v>
       </c>
       <c r="S40" t="n">
-        <v>142.6663589394234</v>
+        <v>142.6663589394231</v>
       </c>
       <c r="T40" t="n">
         <v>172.3859434284805</v>
       </c>
       <c r="U40" t="n">
-        <v>239.0294837004045</v>
+        <v>239.0294837004043</v>
       </c>
       <c r="V40" t="n">
-        <v>204.955038620462</v>
+        <v>204.9550386204621</v>
       </c>
       <c r="W40" t="n">
-        <v>239.340393633225</v>
+        <v>239.3403936332251</v>
       </c>
       <c r="X40" t="n">
         <v>178.5270506856712</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.4020486487288</v>
+        <v>171.4020486487289</v>
       </c>
     </row>
     <row r="41">
@@ -3749,10 +3749,10 @@
         <v>334.7477653688958</v>
       </c>
       <c r="F41" t="n">
-        <v>359.6934410383455</v>
+        <v>359.6934410383454</v>
       </c>
       <c r="G41" t="n">
-        <v>363.7493468044343</v>
+        <v>363.7493468044342</v>
       </c>
       <c r="H41" t="n">
         <v>247.5298852147831</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.23817874073633</v>
+        <v>62.23817874073631</v>
       </c>
       <c r="T41" t="n">
-        <v>156.7801291136571</v>
+        <v>156.780129113657</v>
       </c>
       <c r="U41" t="n">
-        <v>203.8133853238838</v>
+        <v>203.8133853238837</v>
       </c>
       <c r="V41" t="n">
-        <v>280.569653766769</v>
+        <v>280.5696537667689</v>
       </c>
       <c r="W41" t="n">
-        <v>302.0583640140471</v>
+        <v>302.058364014047</v>
       </c>
       <c r="X41" t="n">
-        <v>322.5484959751031</v>
+        <v>322.548495975103</v>
       </c>
       <c r="Y41" t="n">
         <v>339.0553339526876</v>
@@ -3898,25 +3898,25 @@
         <v>132.6493754785713</v>
       </c>
       <c r="C43" t="n">
-        <v>120.0642163952619</v>
+        <v>120.0642163952618</v>
       </c>
       <c r="D43" t="n">
         <v>101.4328683148464</v>
       </c>
       <c r="E43" t="n">
-        <v>99.2513579432032</v>
+        <v>99.25135794320317</v>
       </c>
       <c r="F43" t="n">
-        <v>98.23844331956528</v>
+        <v>98.23844331956525</v>
       </c>
       <c r="G43" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H43" t="n">
-        <v>97.61319251064073</v>
+        <v>97.61319251064069</v>
       </c>
       <c r="I43" t="n">
-        <v>49.30775829068582</v>
+        <v>49.3077582906858</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95579464791501</v>
+        <v>41.95579464791486</v>
       </c>
       <c r="S43" t="n">
         <v>142.6663589394234</v>
@@ -3986,10 +3986,10 @@
         <v>334.7477653688958</v>
       </c>
       <c r="F44" t="n">
-        <v>359.6934410383454</v>
+        <v>359.6934410383455</v>
       </c>
       <c r="G44" t="n">
-        <v>363.7493468044342</v>
+        <v>363.7493468044343</v>
       </c>
       <c r="H44" t="n">
         <v>247.5298852147831</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.23817874073633</v>
+        <v>62.23817874073634</v>
       </c>
       <c r="T44" t="n">
-        <v>156.780129113657</v>
+        <v>156.7801291136571</v>
       </c>
       <c r="U44" t="n">
-        <v>203.8133853238837</v>
+        <v>203.8133853238838</v>
       </c>
       <c r="V44" t="n">
-        <v>280.5696537667689</v>
+        <v>280.569653766769</v>
       </c>
       <c r="W44" t="n">
-        <v>302.058364014047</v>
+        <v>302.0583640140471</v>
       </c>
       <c r="X44" t="n">
-        <v>322.548495975103</v>
+        <v>322.5484959751031</v>
       </c>
       <c r="Y44" t="n">
         <v>339.0553339526876</v>
@@ -4074,7 +4074,7 @@
         <v>89.64971679732054</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50313795295391</v>
+        <v>10.02052664519998</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.4826113077538707</v>
       </c>
       <c r="S45" t="n">
         <v>128.2451349072393</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.6493754785713</v>
+        <v>132.6493754785714</v>
       </c>
       <c r="C46" t="n">
         <v>120.0642163952619</v>
@@ -4141,19 +4141,19 @@
         <v>101.4328683148464</v>
       </c>
       <c r="E46" t="n">
-        <v>99.25135794320319</v>
+        <v>99.25135794320322</v>
       </c>
       <c r="F46" t="n">
-        <v>98.23844331956526</v>
+        <v>98.23844331956529</v>
       </c>
       <c r="G46" t="n">
         <v>118.8477905218846</v>
       </c>
       <c r="H46" t="n">
-        <v>97.61319251064072</v>
+        <v>97.61319251064073</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3077582906858</v>
+        <v>49.30775829068584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95579464791498</v>
+        <v>41.95579464791486</v>
       </c>
       <c r="S46" t="n">
-        <v>142.6663589394234</v>
+        <v>142.6663589394235</v>
       </c>
       <c r="T46" t="n">
-        <v>172.38594342848</v>
+        <v>172.3859434284805</v>
       </c>
       <c r="U46" t="n">
         <v>239.0294837004043</v>
       </c>
       <c r="V46" t="n">
-        <v>204.955038620462</v>
+        <v>204.9550386204621</v>
       </c>
       <c r="W46" t="n">
-        <v>239.340393633225</v>
+        <v>239.3403936332251</v>
       </c>
       <c r="X46" t="n">
         <v>178.5270506856712</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.4020486487288</v>
+        <v>171.4020486487289</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.504148268229</v>
+        <v>1151.968085073694</v>
       </c>
       <c r="C11" t="n">
-        <v>1187.541631327817</v>
+        <v>795.0043222822942</v>
       </c>
       <c r="D11" t="n">
-        <v>829.2759327210669</v>
+        <v>795.0043222822942</v>
       </c>
       <c r="E11" t="n">
-        <v>777.5334975674807</v>
+        <v>409.21606968405</v>
       </c>
       <c r="F11" t="n">
-        <v>777.5334975674807</v>
+        <v>409.21606968405</v>
       </c>
       <c r="G11" t="n">
-        <v>362.3343415071168</v>
+        <v>409.21606968405</v>
       </c>
       <c r="H11" t="n">
-        <v>63.45311426261317</v>
+        <v>110.3348424395463</v>
       </c>
       <c r="I11" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="J11" t="n">
         <v>241.7922445927356</v>
       </c>
       <c r="K11" t="n">
-        <v>559.814889553159</v>
+        <v>559.8148895531594</v>
       </c>
       <c r="L11" t="n">
-        <v>991.251863970414</v>
+        <v>991.2518639704144</v>
       </c>
       <c r="M11" t="n">
         <v>1502.978064459008</v>
@@ -5057,34 +5057,34 @@
         <v>2509.647125051453</v>
       </c>
       <c r="P11" t="n">
-        <v>2886.56361114015</v>
+        <v>2886.563611140149</v>
       </c>
       <c r="Q11" t="n">
-        <v>3121.439448523874</v>
+        <v>3121.439448523873</v>
       </c>
       <c r="R11" t="n">
-        <v>3172.655713130659</v>
+        <v>3172.655713130658</v>
       </c>
       <c r="S11" t="n">
-        <v>3059.477733839357</v>
+        <v>3059.477733839356</v>
       </c>
       <c r="T11" t="n">
-        <v>3059.477733839357</v>
+        <v>2852.945331122863</v>
       </c>
       <c r="U11" t="n">
-        <v>3059.477733839357</v>
+        <v>2599.404717924271</v>
       </c>
       <c r="V11" t="n">
-        <v>3059.477733839357</v>
+        <v>2268.3418305807</v>
       </c>
       <c r="W11" t="n">
-        <v>2706.709078569243</v>
+        <v>1915.573175310586</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.243320308163</v>
+        <v>1542.107417049506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1943.103988332351</v>
+        <v>1151.968085073694</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>74.56650143423558</v>
       </c>
       <c r="I12" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="J12" t="n">
         <v>150.8528315848886</v>
       </c>
       <c r="K12" t="n">
-        <v>378.3876940357412</v>
+        <v>475.1378103199011</v>
       </c>
       <c r="L12" t="n">
-        <v>730.6589373021337</v>
+        <v>827.4090535862935</v>
       </c>
       <c r="M12" t="n">
-        <v>1257.849847089324</v>
+        <v>1257.849847089325</v>
       </c>
       <c r="N12" t="n">
         <v>1714.091772495573</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.5697536749489</v>
+        <v>211.3662078450063</v>
       </c>
       <c r="C13" t="n">
-        <v>213.5697536749489</v>
+        <v>211.3662078450063</v>
       </c>
       <c r="D13" t="n">
-        <v>63.45311426261317</v>
+        <v>211.3662078450063</v>
       </c>
       <c r="E13" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="F13" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="G13" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="H13" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="I13" t="n">
-        <v>63.45311426261317</v>
+        <v>63.45311426261316</v>
       </c>
       <c r="J13" t="n">
         <v>104.6374122177191</v>
@@ -5206,13 +5206,13 @@
         <v>610.4307049067252</v>
       </c>
       <c r="M13" t="n">
-        <v>945.8557585244538</v>
+        <v>945.8557585244533</v>
       </c>
       <c r="N13" t="n">
-        <v>1278.739770500864</v>
+        <v>1278.739770500863</v>
       </c>
       <c r="O13" t="n">
-        <v>1570.195738885214</v>
+        <v>1570.195738885213</v>
       </c>
       <c r="P13" t="n">
         <v>1796.065988183563</v>
@@ -5224,25 +5224,25 @@
         <v>1776.625754565476</v>
       </c>
       <c r="S13" t="n">
-        <v>1583.949375537906</v>
+        <v>1583.949375537905</v>
       </c>
       <c r="T13" t="n">
-        <v>1361.939915776933</v>
+        <v>1454.211848830857</v>
       </c>
       <c r="U13" t="n">
-        <v>1133.417518583697</v>
+        <v>1165.105881816111</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.417518583697</v>
+        <v>910.421393610224</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0003485467361</v>
+        <v>621.0042235732633</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0107976487187</v>
+        <v>393.0146726752459</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.2182185051886</v>
+        <v>393.0146726752459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1761.166980900008</v>
+        <v>1650.640937017076</v>
       </c>
       <c r="C14" t="n">
-        <v>1392.204463959596</v>
+        <v>1605.514034013524</v>
       </c>
       <c r="D14" t="n">
-        <v>1033.938765352845</v>
+        <v>1247.248335406774</v>
       </c>
       <c r="E14" t="n">
-        <v>648.1505127546009</v>
+        <v>1247.248335406774</v>
       </c>
       <c r="F14" t="n">
-        <v>237.1646079649941</v>
+        <v>836.2624306171665</v>
       </c>
       <c r="G14" t="n">
-        <v>81.09515440648146</v>
+        <v>421.1796513163582</v>
       </c>
       <c r="H14" t="n">
-        <v>81.09515440648146</v>
+        <v>123.4902675606521</v>
       </c>
       <c r="I14" t="n">
         <v>81.09515440648146</v>
       </c>
       <c r="J14" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K14" t="n">
-        <v>1089.95627963219</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L14" t="n">
-        <v>1539.392913535873</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M14" t="n">
-        <v>2071.147203366205</v>
+        <v>2027.855994058303</v>
       </c>
       <c r="N14" t="n">
-        <v>2616.119641916819</v>
+        <v>2854.598113289658</v>
       </c>
       <c r="O14" t="n">
-        <v>3117.386400793756</v>
+        <v>3355.864872166595</v>
       </c>
       <c r="P14" t="n">
-        <v>3684.124197118514</v>
+        <v>3749.183452792767</v>
       </c>
       <c r="Q14" t="n">
-        <v>3931.317324417895</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R14" t="n">
         <v>4054.757720324073</v>
       </c>
       <c r="S14" t="n">
-        <v>4054.757720324073</v>
+        <v>3944.231676441142</v>
       </c>
       <c r="T14" t="n">
-        <v>3848.734756872534</v>
+        <v>3738.208712989603</v>
       </c>
       <c r="U14" t="n">
-        <v>3595.203453814706</v>
+        <v>3484.677409931774</v>
       </c>
       <c r="V14" t="n">
-        <v>3264.140566471135</v>
+        <v>3153.614522588204</v>
       </c>
       <c r="W14" t="n">
-        <v>2911.371911201021</v>
+        <v>2800.845867318089</v>
       </c>
       <c r="X14" t="n">
-        <v>2537.906152939941</v>
+        <v>2427.38010905701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2147.766820964129</v>
+        <v>2037.240777081198</v>
       </c>
     </row>
     <row r="15">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>661.462201408438</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="C16" t="n">
-        <v>492.526018480531</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="D16" t="n">
-        <v>492.526018480531</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="E16" t="n">
-        <v>492.526018480531</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="F16" t="n">
-        <v>492.526018480531</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="G16" t="n">
-        <v>324.8185485560355</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="H16" t="n">
-        <v>178.5601675317863</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="I16" t="n">
         <v>81.09515440648146</v>
       </c>
       <c r="J16" t="n">
-        <v>125.8967313266166</v>
+        <v>125.8967313266167</v>
       </c>
       <c r="K16" t="n">
-        <v>329.3563214205994</v>
+        <v>329.3563214205993</v>
       </c>
       <c r="L16" t="n">
-        <v>645.2409826586941</v>
+        <v>645.240982658694</v>
       </c>
       <c r="M16" t="n">
-        <v>988.6861907310965</v>
+        <v>988.6861907310963</v>
       </c>
       <c r="N16" t="n">
         <v>1329.399655815175</v>
       </c>
       <c r="O16" t="n">
-        <v>1628.087391378164</v>
+        <v>1628.087391378163</v>
       </c>
       <c r="P16" t="n">
-        <v>1860.145666824225</v>
+        <v>1860.145666824224</v>
       </c>
       <c r="Q16" t="n">
         <v>1937.375708063874</v>
       </c>
       <c r="R16" t="n">
-        <v>1937.375708063874</v>
+        <v>1847.336920840357</v>
       </c>
       <c r="S16" t="n">
-        <v>1937.375708063874</v>
+        <v>1655.570290898146</v>
       </c>
       <c r="T16" t="n">
-        <v>1870.413085916954</v>
+        <v>1433.783878643756</v>
       </c>
       <c r="U16" t="n">
-        <v>1581.309966317186</v>
+        <v>1144.680759043987</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.309966317186</v>
+        <v>889.9962708381004</v>
       </c>
       <c r="W16" t="n">
-        <v>1291.892796280225</v>
+        <v>600.5791008011397</v>
       </c>
       <c r="X16" t="n">
-        <v>1063.903245382208</v>
+        <v>372.5895499031224</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.1106662386777</v>
+        <v>151.7969707595922</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1061.875632242404</v>
       </c>
       <c r="F17" t="n">
-        <v>698.5489241228629</v>
+        <v>698.5489241228626</v>
       </c>
       <c r="G17" t="n">
         <v>331.125341492121</v>
@@ -5513,34 +5513,34 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J17" t="n">
-        <v>436.5207068465514</v>
+        <v>436.5207068465515</v>
       </c>
       <c r="K17" t="n">
-        <v>944.7947742410084</v>
+        <v>1089.95627963219</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.231408144691</v>
+        <v>1539.392913535873</v>
       </c>
       <c r="M17" t="n">
-        <v>1925.985697975023</v>
+        <v>2309.625674739043</v>
       </c>
       <c r="N17" t="n">
-        <v>2470.958136525637</v>
+        <v>2854.598113289658</v>
       </c>
       <c r="O17" t="n">
-        <v>2972.224895402574</v>
+        <v>3355.864872166595</v>
       </c>
       <c r="P17" t="n">
-        <v>3684.124197118514</v>
+        <v>3749.183452792767</v>
       </c>
       <c r="Q17" t="n">
-        <v>3931.317324417895</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R17" t="n">
         <v>4054.757720324073</v>
       </c>
       <c r="S17" t="n">
-        <v>3991.890873111207</v>
+        <v>3991.890873111208</v>
       </c>
       <c r="T17" t="n">
         <v>3833.527106329736</v>
@@ -5555,7 +5555,7 @@
         <v>3039.141850668423</v>
       </c>
       <c r="X17" t="n">
-        <v>2713.335289077409</v>
+        <v>2713.33528907741</v>
       </c>
       <c r="Y17" t="n">
         <v>2370.855153771665</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.7877328227935</v>
+        <v>947.3002466533455</v>
       </c>
       <c r="C18" t="n">
-        <v>773.3347035416665</v>
+        <v>772.8472173722186</v>
       </c>
       <c r="D18" t="n">
-        <v>624.4002938804152</v>
+        <v>623.9128077109673</v>
       </c>
       <c r="E18" t="n">
-        <v>465.1628388749597</v>
+        <v>464.6753527055118</v>
       </c>
       <c r="F18" t="n">
-        <v>318.6282809018447</v>
+        <v>318.1407947323968</v>
       </c>
       <c r="G18" t="n">
-        <v>182.2596541542334</v>
+        <v>181.7721679847855</v>
       </c>
       <c r="H18" t="n">
-        <v>91.70438466199046</v>
+        <v>91.21689849254253</v>
       </c>
       <c r="I18" t="n">
         <v>81.09515440648146</v>
@@ -5595,19 +5595,19 @@
         <v>174.2606738609846</v>
       </c>
       <c r="K18" t="n">
-        <v>411.650210519266</v>
+        <v>411.6502105192661</v>
       </c>
       <c r="L18" t="n">
-        <v>777.1722793998792</v>
+        <v>777.1722793998795</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.076161393639</v>
+        <v>1223.07616139364</v>
       </c>
       <c r="N18" t="n">
         <v>1695.190437231111</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.862969413239</v>
+        <v>2104.86296941324</v>
       </c>
       <c r="P18" t="n">
         <v>2414.328227614548</v>
@@ -5616,28 +5616,28 @@
         <v>2571.278360858796</v>
       </c>
       <c r="R18" t="n">
-        <v>2571.278360858796</v>
+        <v>2570.790874689348</v>
       </c>
       <c r="S18" t="n">
-        <v>2441.737820548453</v>
+        <v>2441.250334379005</v>
       </c>
       <c r="T18" t="n">
-        <v>2249.072544229682</v>
+        <v>2248.585058060234</v>
       </c>
       <c r="U18" t="n">
-        <v>2021.004333773293</v>
+        <v>2020.516847603845</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.85222554155</v>
+        <v>1785.364739372102</v>
       </c>
       <c r="W18" t="n">
-        <v>1531.614868813348</v>
+        <v>1531.1273826439</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.763368607815</v>
+        <v>1323.275882438367</v>
       </c>
       <c r="Y18" t="n">
-        <v>1116.003069842862</v>
+        <v>1115.515583673414</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.7675052106107</v>
+        <v>772.767505210611</v>
       </c>
       <c r="C19" t="n">
-        <v>651.4905189527705</v>
+        <v>651.4905189527708</v>
       </c>
       <c r="D19" t="n">
-        <v>549.0330762105013</v>
+        <v>549.0330762105017</v>
       </c>
       <c r="E19" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981752</v>
       </c>
       <c r="F19" t="n">
-        <v>349.5484284703311</v>
+        <v>349.5484284703315</v>
       </c>
       <c r="G19" t="n">
-        <v>229.5001552159022</v>
+        <v>229.5001552159026</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9009708617197</v>
+        <v>130.9009708617201</v>
       </c>
       <c r="I19" t="n">
         <v>81.09515440648146</v>
@@ -5674,10 +5674,10 @@
         <v>172.607509982949</v>
       </c>
       <c r="K19" t="n">
-        <v>422.7778787332641</v>
+        <v>422.7778787332643</v>
       </c>
       <c r="L19" t="n">
-        <v>785.373318627691</v>
+        <v>785.3733186276912</v>
       </c>
       <c r="M19" t="n">
         <v>1175.529305356426</v>
@@ -5695,16 +5695,16 @@
         <v>2311.061937314532</v>
       </c>
       <c r="R19" t="n">
-        <v>2268.682346761082</v>
+        <v>2268.682346761083</v>
       </c>
       <c r="S19" t="n">
-        <v>2124.574913488937</v>
+        <v>2124.574913488938</v>
       </c>
       <c r="T19" t="n">
         <v>1950.447697904614</v>
       </c>
       <c r="U19" t="n">
-        <v>1709.003774974912</v>
+        <v>1709.003774974913</v>
       </c>
       <c r="V19" t="n">
         <v>1501.978483439092</v>
@@ -5713,10 +5713,10 @@
         <v>1260.220510072198</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.890155844247</v>
+        <v>1079.890155844248</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.7567733707838</v>
+        <v>906.7567733707841</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1061.875632242404</v>
       </c>
       <c r="F20" t="n">
-        <v>698.5489241228627</v>
+        <v>698.5489241228629</v>
       </c>
       <c r="G20" t="n">
-        <v>331.125341492121</v>
+        <v>331.1253414921219</v>
       </c>
       <c r="H20" t="n">
         <v>81.09515440648146</v>
@@ -5753,25 +5753,25 @@
         <v>269.1150578261984</v>
       </c>
       <c r="K20" t="n">
-        <v>922.5506306118367</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.98726451552</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M20" t="n">
-        <v>1903.741554345852</v>
+        <v>1582.837595900399</v>
       </c>
       <c r="N20" t="n">
-        <v>2448.713992896465</v>
+        <v>2127.810034451012</v>
       </c>
       <c r="O20" t="n">
-        <v>3037.284151076828</v>
+        <v>3006.068972778067</v>
       </c>
       <c r="P20" t="n">
-        <v>3749.183452792767</v>
+        <v>3473.932356365209</v>
       </c>
       <c r="Q20" t="n">
-        <v>3996.376580092148</v>
+        <v>3931.317324417896</v>
       </c>
       <c r="R20" t="n">
         <v>4054.757720324073</v>
@@ -5789,7 +5789,7 @@
         <v>3344.251309268471</v>
       </c>
       <c r="W20" t="n">
-        <v>3039.141850668424</v>
+        <v>3039.141850668423</v>
       </c>
       <c r="X20" t="n">
         <v>2713.33528907741</v>
@@ -5908,22 +5908,22 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J22" t="n">
-        <v>172.607509982949</v>
+        <v>172.6075099829487</v>
       </c>
       <c r="K22" t="n">
-        <v>422.777878733264</v>
+        <v>422.7778787332637</v>
       </c>
       <c r="L22" t="n">
-        <v>785.3733186276909</v>
+        <v>785.3733186276905</v>
       </c>
       <c r="M22" t="n">
-        <v>1175.529305356426</v>
+        <v>1175.529305356425</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.953549096837</v>
+        <v>1562.953549096836</v>
       </c>
       <c r="O22" t="n">
-        <v>1908.352063316158</v>
+        <v>1908.352063316157</v>
       </c>
       <c r="P22" t="n">
         <v>2187.121117418551</v>
@@ -5987,25 +5987,25 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J23" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K23" t="n">
-        <v>1053.183654577471</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L23" t="n">
-        <v>1502.620288481154</v>
+        <v>1394.231408144692</v>
       </c>
       <c r="M23" t="n">
-        <v>2034.374578311486</v>
+        <v>1925.985697975024</v>
       </c>
       <c r="N23" t="n">
-        <v>2579.3470168621</v>
+        <v>2470.958136525638</v>
       </c>
       <c r="O23" t="n">
-        <v>3080.613775739037</v>
+        <v>2972.224895402575</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.932356365209</v>
+        <v>3684.124197118515</v>
       </c>
       <c r="Q23" t="n">
         <v>3931.317324417896</v>
@@ -6026,7 +6026,7 @@
         <v>3344.251309268471</v>
       </c>
       <c r="W23" t="n">
-        <v>3039.141850668424</v>
+        <v>3039.141850668423</v>
       </c>
       <c r="X23" t="n">
         <v>2713.33528907741</v>
@@ -6151,10 +6151,10 @@
         <v>422.7778787332639</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3733186276909</v>
+        <v>785.3733186276905</v>
       </c>
       <c r="M25" t="n">
-        <v>1175.529305356426</v>
+        <v>1175.529305356425</v>
       </c>
       <c r="N25" t="n">
         <v>1562.953549096836</v>
@@ -6209,13 +6209,13 @@
         <v>1400.004688170581</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.875632242404</v>
+        <v>1061.875632242403</v>
       </c>
       <c r="F26" t="n">
-        <v>698.5489241228629</v>
+        <v>698.5489241228624</v>
       </c>
       <c r="G26" t="n">
-        <v>331.125341492121</v>
+        <v>331.1253414921209</v>
       </c>
       <c r="H26" t="n">
         <v>81.09515440648146</v>
@@ -6224,28 +6224,28 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J26" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K26" t="n">
-        <v>1053.183654577471</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L26" t="n">
-        <v>1502.620288481154</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M26" t="n">
-        <v>2034.374578311486</v>
+        <v>2027.855994058303</v>
       </c>
       <c r="N26" t="n">
-        <v>2579.3470168621</v>
+        <v>2572.828432608917</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.613775739037</v>
+        <v>3355.864872166595</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.932356365209</v>
+        <v>3749.183452792767</v>
       </c>
       <c r="Q26" t="n">
-        <v>3931.317324417896</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R26" t="n">
         <v>4054.757720324073</v>
@@ -6263,7 +6263,7 @@
         <v>3344.251309268471</v>
       </c>
       <c r="W26" t="n">
-        <v>3039.141850668424</v>
+        <v>3039.141850668423</v>
       </c>
       <c r="X26" t="n">
         <v>2713.33528907741</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.7675052106107</v>
+        <v>772.7675052106106</v>
       </c>
       <c r="C28" t="n">
-        <v>651.4905189527705</v>
+        <v>651.4905189527703</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0330762105013</v>
+        <v>549.0330762105012</v>
       </c>
       <c r="E28" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981748</v>
       </c>
       <c r="F28" t="n">
         <v>349.5484284703311</v>
@@ -6382,16 +6382,16 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J28" t="n">
-        <v>172.6075099829493</v>
+        <v>172.607509982949</v>
       </c>
       <c r="K28" t="n">
-        <v>422.7778787332643</v>
+        <v>422.7778787332636</v>
       </c>
       <c r="L28" t="n">
-        <v>785.3733186276911</v>
+        <v>785.3733186276904</v>
       </c>
       <c r="M28" t="n">
-        <v>1175.529305356426</v>
+        <v>1175.529305356425</v>
       </c>
       <c r="N28" t="n">
         <v>1562.953549096836</v>
@@ -6403,7 +6403,7 @@
         <v>2187.121117418551</v>
       </c>
       <c r="Q28" t="n">
-        <v>2311.061937314532</v>
+        <v>2311.061937314531</v>
       </c>
       <c r="R28" t="n">
         <v>2268.682346761082</v>
@@ -6412,10 +6412,10 @@
         <v>2124.574913488937</v>
       </c>
       <c r="T28" t="n">
-        <v>1950.447697904614</v>
+        <v>1950.447697904613</v>
       </c>
       <c r="U28" t="n">
-        <v>1709.003774974913</v>
+        <v>1709.003774974912</v>
       </c>
       <c r="V28" t="n">
         <v>1501.978483439092</v>
@@ -6427,7 +6427,7 @@
         <v>1079.890155844247</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.7567733707838</v>
+        <v>906.7567733707835</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>698.5489241228629</v>
       </c>
       <c r="G29" t="n">
-        <v>331.125341492121</v>
+        <v>331.1253414921209</v>
       </c>
       <c r="H29" t="n">
         <v>81.09515440648146</v>
@@ -6461,28 +6461,28 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J29" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K29" t="n">
-        <v>769.0523211867367</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.488955090419</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M29" t="n">
-        <v>1750.243244920752</v>
+        <v>2027.855994058303</v>
       </c>
       <c r="N29" t="n">
-        <v>2295.215683471365</v>
+        <v>2854.598113289658</v>
       </c>
       <c r="O29" t="n">
-        <v>3173.47462179842</v>
+        <v>3355.864872166595</v>
       </c>
       <c r="P29" t="n">
-        <v>3566.793202424592</v>
+        <v>3749.183452792767</v>
       </c>
       <c r="Q29" t="n">
-        <v>3931.317324417896</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R29" t="n">
         <v>4054.757720324073</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7877328227935</v>
+        <v>947.3002466533451</v>
       </c>
       <c r="C30" t="n">
-        <v>773.3347035416665</v>
+        <v>772.8472173722181</v>
       </c>
       <c r="D30" t="n">
-        <v>624.4002938804152</v>
+        <v>623.9128077109668</v>
       </c>
       <c r="E30" t="n">
-        <v>465.1628388749597</v>
+        <v>464.6753527055113</v>
       </c>
       <c r="F30" t="n">
-        <v>318.6282809018447</v>
+        <v>318.1407947323963</v>
       </c>
       <c r="G30" t="n">
-        <v>182.2596541542334</v>
+        <v>181.772167984785</v>
       </c>
       <c r="H30" t="n">
-        <v>91.70438466199046</v>
+        <v>91.21689849254206</v>
       </c>
       <c r="I30" t="n">
         <v>81.09515440648146</v>
@@ -6564,28 +6564,28 @@
         <v>2571.278360858796</v>
       </c>
       <c r="R30" t="n">
-        <v>2571.278360858796</v>
+        <v>2570.790874689347</v>
       </c>
       <c r="S30" t="n">
-        <v>2441.737820548453</v>
+        <v>2441.250334379004</v>
       </c>
       <c r="T30" t="n">
-        <v>2249.072544229682</v>
+        <v>2248.585058060233</v>
       </c>
       <c r="U30" t="n">
-        <v>2021.004333773293</v>
+        <v>2020.516847603844</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.85222554155</v>
+        <v>1785.364739372101</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.614868813348</v>
+        <v>1531.1273826439</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.763368607815</v>
+        <v>1323.275882438367</v>
       </c>
       <c r="Y30" t="n">
-        <v>1116.003069842862</v>
+        <v>1115.515583673413</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.7675052106107</v>
+        <v>772.7675052106111</v>
       </c>
       <c r="C31" t="n">
-        <v>651.4905189527705</v>
+        <v>651.4905189527709</v>
       </c>
       <c r="D31" t="n">
-        <v>549.0330762105013</v>
+        <v>549.0330762105018</v>
       </c>
       <c r="E31" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981753</v>
       </c>
       <c r="F31" t="n">
-        <v>349.5484284703311</v>
+        <v>349.5484284703316</v>
       </c>
       <c r="G31" t="n">
-        <v>229.5001552159022</v>
+        <v>229.5001552159027</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9009708617197</v>
+        <v>130.9009708617196</v>
       </c>
       <c r="I31" t="n">
         <v>81.09515440648146</v>
       </c>
       <c r="J31" t="n">
-        <v>172.6075099829488</v>
+        <v>172.6075099829489</v>
       </c>
       <c r="K31" t="n">
-        <v>422.7778787332641</v>
+        <v>422.7778787332639</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3733186276909</v>
+        <v>785.3733186276908</v>
       </c>
       <c r="M31" t="n">
         <v>1175.529305356426</v>
@@ -6634,7 +6634,7 @@
         <v>1562.953549096836</v>
       </c>
       <c r="O31" t="n">
-        <v>1908.352063316157</v>
+        <v>1908.352063316158</v>
       </c>
       <c r="P31" t="n">
         <v>2187.121117418551</v>
@@ -6643,10 +6643,10 @@
         <v>2311.061937314532</v>
       </c>
       <c r="R31" t="n">
-        <v>2268.682346761082</v>
+        <v>2268.682346761083</v>
       </c>
       <c r="S31" t="n">
-        <v>2124.574913488937</v>
+        <v>2124.574913488938</v>
       </c>
       <c r="T31" t="n">
         <v>1950.447697904614</v>
@@ -6661,10 +6661,10 @@
         <v>1260.220510072198</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.890155844247</v>
+        <v>1079.890155844248</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.7567733707838</v>
+        <v>906.7567733707842</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.914510377611</v>
+        <v>2031.91451037761</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.611190107266</v>
+        <v>1710.611190107265</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.004688170582</v>
+        <v>1400.004688170581</v>
       </c>
       <c r="E32" t="n">
         <v>1061.875632242404</v>
       </c>
       <c r="F32" t="n">
-        <v>698.5489241228634</v>
+        <v>698.5489241228629</v>
       </c>
       <c r="G32" t="n">
         <v>331.125341492121</v>
       </c>
       <c r="H32" t="n">
-        <v>81.09515440648147</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="I32" t="n">
-        <v>81.09515440648147</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="J32" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K32" t="n">
-        <v>944.7947742410093</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.231408144692</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M32" t="n">
-        <v>1925.985697975024</v>
+        <v>1582.837595900399</v>
       </c>
       <c r="N32" t="n">
-        <v>2470.958136525638</v>
+        <v>2127.810034451012</v>
       </c>
       <c r="O32" t="n">
-        <v>2972.224895402575</v>
+        <v>3006.068972778067</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.124197118515</v>
+        <v>3717.968274494007</v>
       </c>
       <c r="Q32" t="n">
-        <v>3931.317324417896</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R32" t="n">
         <v>4054.757720324073</v>
       </c>
       <c r="S32" t="n">
-        <v>3991.890873111209</v>
+        <v>3991.890873111208</v>
       </c>
       <c r="T32" t="n">
-        <v>3833.527106329737</v>
+        <v>3833.527106329736</v>
       </c>
       <c r="U32" t="n">
-        <v>3627.654999941976</v>
+        <v>3627.654999941975</v>
       </c>
       <c r="V32" t="n">
-        <v>3344.251309268472</v>
+        <v>3344.251309268471</v>
       </c>
       <c r="W32" t="n">
         <v>3039.141850668424</v>
       </c>
       <c r="X32" t="n">
-        <v>2713.335289077411</v>
+        <v>2713.33528907741</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.855153771666</v>
+        <v>2370.855153771665</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7877328227935</v>
+        <v>947.3002466533451</v>
       </c>
       <c r="C33" t="n">
-        <v>773.3347035416665</v>
+        <v>772.8472173722181</v>
       </c>
       <c r="D33" t="n">
-        <v>624.4002938804152</v>
+        <v>623.9128077109668</v>
       </c>
       <c r="E33" t="n">
-        <v>465.1628388749597</v>
+        <v>464.6753527055113</v>
       </c>
       <c r="F33" t="n">
-        <v>318.6282809018447</v>
+        <v>318.1407947323963</v>
       </c>
       <c r="G33" t="n">
-        <v>182.2596541542334</v>
+        <v>181.772167984785</v>
       </c>
       <c r="H33" t="n">
-        <v>91.70438466199046</v>
+        <v>91.21689849254206</v>
       </c>
       <c r="I33" t="n">
-        <v>81.09515440648147</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="J33" t="n">
         <v>174.2606738609846</v>
@@ -6801,28 +6801,28 @@
         <v>2571.278360858796</v>
       </c>
       <c r="R33" t="n">
-        <v>2571.278360858796</v>
+        <v>2570.790874689347</v>
       </c>
       <c r="S33" t="n">
-        <v>2441.737820548453</v>
+        <v>2441.250334379004</v>
       </c>
       <c r="T33" t="n">
-        <v>2249.072544229682</v>
+        <v>2248.585058060233</v>
       </c>
       <c r="U33" t="n">
-        <v>2021.004333773293</v>
+        <v>2020.516847603844</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.85222554155</v>
+        <v>1785.364739372101</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.614868813348</v>
+        <v>1531.1273826439</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.763368607815</v>
+        <v>1323.275882438367</v>
       </c>
       <c r="Y33" t="n">
-        <v>1116.003069842862</v>
+        <v>1115.515583673413</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.7675052106108</v>
+        <v>772.7675052106107</v>
       </c>
       <c r="C34" t="n">
         <v>651.4905189527705</v>
@@ -6841,7 +6841,7 @@
         <v>549.0330762105013</v>
       </c>
       <c r="E34" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981748</v>
       </c>
       <c r="F34" t="n">
         <v>349.5484284703311</v>
@@ -6850,22 +6850,22 @@
         <v>229.5001552159022</v>
       </c>
       <c r="H34" t="n">
-        <v>130.9009708617197</v>
+        <v>130.9009708617196</v>
       </c>
       <c r="I34" t="n">
-        <v>81.09515440648147</v>
+        <v>81.09515440648146</v>
       </c>
       <c r="J34" t="n">
         <v>172.607509982949</v>
       </c>
       <c r="K34" t="n">
-        <v>422.7778787332638</v>
+        <v>422.7778787332639</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3733186276907</v>
+        <v>785.3733186276904</v>
       </c>
       <c r="M34" t="n">
-        <v>1175.529305356426</v>
+        <v>1175.529305356425</v>
       </c>
       <c r="N34" t="n">
         <v>1562.953549096836</v>
@@ -6874,10 +6874,10 @@
         <v>1908.352063316157</v>
       </c>
       <c r="P34" t="n">
-        <v>2187.121117418551</v>
+        <v>2187.12111741855</v>
       </c>
       <c r="Q34" t="n">
-        <v>2311.061937314532</v>
+        <v>2311.061937314531</v>
       </c>
       <c r="R34" t="n">
         <v>2268.682346761082</v>
@@ -6901,7 +6901,7 @@
         <v>1079.890155844247</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.7567733707839</v>
+        <v>906.7567733707838</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J35" t="n">
-        <v>269.1150578261984</v>
+        <v>436.5207068465514</v>
       </c>
       <c r="K35" t="n">
-        <v>601.6466721663835</v>
+        <v>769.0523211867367</v>
       </c>
       <c r="L35" t="n">
-        <v>1051.083306070067</v>
+        <v>1218.488955090419</v>
       </c>
       <c r="M35" t="n">
-        <v>1582.837595900399</v>
+        <v>1876.65221957118</v>
       </c>
       <c r="N35" t="n">
-        <v>2127.810034451012</v>
+        <v>2854.598113289658</v>
       </c>
       <c r="O35" t="n">
-        <v>2762.033054649269</v>
+        <v>3355.864872166595</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.932356365209</v>
+        <v>3749.183452792767</v>
       </c>
       <c r="Q35" t="n">
-        <v>3931.317324417896</v>
+        <v>3996.376580092148</v>
       </c>
       <c r="R35" t="n">
         <v>4054.757720324073</v>
@@ -7087,7 +7087,7 @@
         <v>229.5001552159022</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9009708617196</v>
+        <v>130.9009708617197</v>
       </c>
       <c r="I37" t="n">
         <v>81.09515440648146</v>
@@ -7105,7 +7105,7 @@
         <v>1175.529305356426</v>
       </c>
       <c r="N37" t="n">
-        <v>1562.953549096837</v>
+        <v>1562.953549096836</v>
       </c>
       <c r="O37" t="n">
         <v>1908.352063316158</v>
@@ -7117,13 +7117,13 @@
         <v>2311.061937314532</v>
       </c>
       <c r="R37" t="n">
-        <v>2268.682346761083</v>
+        <v>2268.682346761082</v>
       </c>
       <c r="S37" t="n">
-        <v>2124.574913488938</v>
+        <v>2124.574913488937</v>
       </c>
       <c r="T37" t="n">
-        <v>1950.447697904615</v>
+        <v>1950.447697904614</v>
       </c>
       <c r="U37" t="n">
         <v>1709.003774974912</v>
@@ -7157,43 +7157,43 @@
         <v>1400.004688170581</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.875632242403</v>
+        <v>1061.875632242404</v>
       </c>
       <c r="F38" t="n">
-        <v>698.5489241228624</v>
+        <v>698.5489241228629</v>
       </c>
       <c r="G38" t="n">
         <v>331.125341492121</v>
       </c>
       <c r="H38" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="I38" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J38" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K38" t="n">
-        <v>1053.183654577471</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L38" t="n">
-        <v>1502.620288481154</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M38" t="n">
-        <v>2034.374578311486</v>
+        <v>1582.837595900399</v>
       </c>
       <c r="N38" t="n">
-        <v>2579.3470168621</v>
+        <v>2267.414093086235</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.613775739037</v>
+        <v>3145.67303141329</v>
       </c>
       <c r="P38" t="n">
-        <v>3473.932356365209</v>
+        <v>3538.991612039462</v>
       </c>
       <c r="Q38" t="n">
-        <v>3931.317324417896</v>
+        <v>3996.376580092149</v>
       </c>
       <c r="R38" t="n">
         <v>4054.757720324073</v>
@@ -7205,19 +7205,19 @@
         <v>3833.527106329736</v>
       </c>
       <c r="U38" t="n">
-        <v>3627.654999941975</v>
+        <v>3627.654999941976</v>
       </c>
       <c r="V38" t="n">
-        <v>3344.251309268471</v>
+        <v>3344.251309268472</v>
       </c>
       <c r="W38" t="n">
-        <v>3039.141850668423</v>
+        <v>3039.141850668424</v>
       </c>
       <c r="X38" t="n">
-        <v>2713.33528907741</v>
+        <v>2713.335289077411</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.855153771665</v>
+        <v>2370.855153771666</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>947.7877328227935</v>
+        <v>947.3002466533451</v>
       </c>
       <c r="C39" t="n">
-        <v>773.3347035416665</v>
+        <v>772.8472173722181</v>
       </c>
       <c r="D39" t="n">
-        <v>624.4002938804152</v>
+        <v>623.9128077109668</v>
       </c>
       <c r="E39" t="n">
-        <v>465.1628388749597</v>
+        <v>464.6753527055113</v>
       </c>
       <c r="F39" t="n">
-        <v>318.6282809018447</v>
+        <v>318.1407947323963</v>
       </c>
       <c r="G39" t="n">
-        <v>182.2596541542334</v>
+        <v>181.772167984785</v>
       </c>
       <c r="H39" t="n">
-        <v>91.70438466199046</v>
+        <v>91.21689849254206</v>
       </c>
       <c r="I39" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J39" t="n">
         <v>174.2606738609846</v>
@@ -7275,28 +7275,28 @@
         <v>2571.278360858796</v>
       </c>
       <c r="R39" t="n">
-        <v>2571.278360858796</v>
+        <v>2570.790874689347</v>
       </c>
       <c r="S39" t="n">
-        <v>2441.737820548453</v>
+        <v>2441.250334379004</v>
       </c>
       <c r="T39" t="n">
-        <v>2249.072544229682</v>
+        <v>2248.585058060233</v>
       </c>
       <c r="U39" t="n">
-        <v>2021.004333773293</v>
+        <v>2020.516847603844</v>
       </c>
       <c r="V39" t="n">
-        <v>1785.85222554155</v>
+        <v>1785.364739372101</v>
       </c>
       <c r="W39" t="n">
-        <v>1531.614868813348</v>
+        <v>1531.1273826439</v>
       </c>
       <c r="X39" t="n">
-        <v>1323.763368607815</v>
+        <v>1323.275882438367</v>
       </c>
       <c r="Y39" t="n">
-        <v>1116.003069842862</v>
+        <v>1115.515583673413</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.7675052106107</v>
+        <v>772.767505210611</v>
       </c>
       <c r="C40" t="n">
-        <v>651.4905189527705</v>
+        <v>651.4905189527707</v>
       </c>
       <c r="D40" t="n">
-        <v>549.0330762105013</v>
+        <v>549.0330762105016</v>
       </c>
       <c r="E40" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981751</v>
       </c>
       <c r="F40" t="n">
-        <v>349.5484284703311</v>
+        <v>349.5484284703313</v>
       </c>
       <c r="G40" t="n">
-        <v>229.5001552159022</v>
+        <v>229.5001552159024</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9009708617197</v>
+        <v>130.9009708617198</v>
       </c>
       <c r="I40" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J40" t="n">
         <v>172.607509982949</v>
       </c>
       <c r="K40" t="n">
-        <v>422.7778787332639</v>
+        <v>422.7778787332638</v>
       </c>
       <c r="L40" t="n">
-        <v>785.3733186276909</v>
+        <v>785.3733186276907</v>
       </c>
       <c r="M40" t="n">
         <v>1175.529305356426</v>
       </c>
       <c r="N40" t="n">
-        <v>1562.953549096837</v>
+        <v>1562.953549096836</v>
       </c>
       <c r="O40" t="n">
-        <v>1908.352063316158</v>
+        <v>1908.352063316157</v>
       </c>
       <c r="P40" t="n">
         <v>2187.121117418551</v>
@@ -7357,25 +7357,25 @@
         <v>2268.682346761082</v>
       </c>
       <c r="S40" t="n">
-        <v>2124.574913488937</v>
+        <v>2124.574913488938</v>
       </c>
       <c r="T40" t="n">
         <v>1950.447697904614</v>
       </c>
       <c r="U40" t="n">
-        <v>1709.003774974912</v>
+        <v>1709.003774974913</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.978483439092</v>
+        <v>1501.978483439093</v>
       </c>
       <c r="W40" t="n">
-        <v>1260.220510072198</v>
+        <v>1260.220510072199</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.890155844247</v>
+        <v>1079.890155844248</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.7567733707838</v>
+        <v>906.7567733707841</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1400.004688170581</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.875632242403</v>
+        <v>1061.875632242404</v>
       </c>
       <c r="F41" t="n">
-        <v>698.5489241228624</v>
+        <v>698.5489241228629</v>
       </c>
       <c r="G41" t="n">
-        <v>331.125341492121</v>
+        <v>331.1253414921209</v>
       </c>
       <c r="H41" t="n">
         <v>81.09515440648146</v>
@@ -7409,25 +7409,25 @@
         <v>81.09515440648146</v>
       </c>
       <c r="J41" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K41" t="n">
-        <v>769.0523211867367</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.488955090419</v>
+        <v>1279.838674066595</v>
       </c>
       <c r="M41" t="n">
-        <v>1750.243244920752</v>
+        <v>1811.592963896927</v>
       </c>
       <c r="N41" t="n">
-        <v>2295.215683471365</v>
+        <v>2789.538857615406</v>
       </c>
       <c r="O41" t="n">
-        <v>2796.482442348302</v>
+        <v>3290.805616492343</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.932356365209</v>
+        <v>3684.124197118515</v>
       </c>
       <c r="Q41" t="n">
         <v>3931.317324417896</v>
@@ -7448,7 +7448,7 @@
         <v>3344.251309268471</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.141850668423</v>
+        <v>3039.141850668424</v>
       </c>
       <c r="X41" t="n">
         <v>2713.33528907741</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.7675052106107</v>
+        <v>772.7675052106104</v>
       </c>
       <c r="C43" t="n">
-        <v>651.4905189527705</v>
+        <v>651.4905189527701</v>
       </c>
       <c r="D43" t="n">
-        <v>549.0330762105013</v>
+        <v>549.0330762105011</v>
       </c>
       <c r="E43" t="n">
-        <v>448.7791792981749</v>
+        <v>448.7791792981747</v>
       </c>
       <c r="F43" t="n">
-        <v>349.5484284703311</v>
+        <v>349.548428470331</v>
       </c>
       <c r="G43" t="n">
         <v>229.5001552159022</v>
@@ -7612,7 +7612,7 @@
         <v>1079.890155844247</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.7567733707838</v>
+        <v>906.7567733707833</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.91451037761</v>
+        <v>2031.914510377611</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.611190107265</v>
+        <v>1710.611190107266</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.004688170581</v>
+        <v>1400.004688170582</v>
       </c>
       <c r="E44" t="n">
         <v>1061.875632242404</v>
       </c>
       <c r="F44" t="n">
-        <v>698.5489241228629</v>
+        <v>698.5489241228634</v>
       </c>
       <c r="G44" t="n">
-        <v>331.1253414921209</v>
+        <v>331.125341492121</v>
       </c>
       <c r="H44" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="I44" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J44" t="n">
-        <v>436.5207068465514</v>
+        <v>269.1150578261984</v>
       </c>
       <c r="K44" t="n">
-        <v>769.0523211867367</v>
+        <v>601.6466721663835</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.488955090419</v>
+        <v>1051.083306070067</v>
       </c>
       <c r="M44" t="n">
-        <v>1750.243244920752</v>
+        <v>1582.837595900399</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.215683471365</v>
+        <v>2127.810034451012</v>
       </c>
       <c r="O44" t="n">
-        <v>2796.482442348302</v>
+        <v>3006.068972778067</v>
       </c>
       <c r="P44" t="n">
-        <v>3508.381744064242</v>
+        <v>3717.968274494007</v>
       </c>
       <c r="Q44" t="n">
-        <v>3965.766712116929</v>
+        <v>3996.376580092149</v>
       </c>
       <c r="R44" t="n">
         <v>4054.757720324073</v>
       </c>
       <c r="S44" t="n">
-        <v>3991.890873111208</v>
+        <v>3991.890873111209</v>
       </c>
       <c r="T44" t="n">
-        <v>3833.527106329736</v>
+        <v>3833.527106329737</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.654999941975</v>
+        <v>3627.654999941976</v>
       </c>
       <c r="V44" t="n">
-        <v>3344.251309268471</v>
+        <v>3344.251309268472</v>
       </c>
       <c r="W44" t="n">
         <v>3039.141850668424</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>947.7877328227935</v>
+        <v>947.3002466533451</v>
       </c>
       <c r="C45" t="n">
-        <v>773.3347035416665</v>
+        <v>772.8472173722181</v>
       </c>
       <c r="D45" t="n">
-        <v>624.4002938804152</v>
+        <v>623.9128077109668</v>
       </c>
       <c r="E45" t="n">
-        <v>465.1628388749597</v>
+        <v>464.6753527055113</v>
       </c>
       <c r="F45" t="n">
-        <v>318.6282809018447</v>
+        <v>318.1407947323963</v>
       </c>
       <c r="G45" t="n">
-        <v>182.2596541542334</v>
+        <v>181.772167984785</v>
       </c>
       <c r="H45" t="n">
-        <v>91.70438466199046</v>
+        <v>91.21689849254206</v>
       </c>
       <c r="I45" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J45" t="n">
         <v>174.2606738609846</v>
@@ -7749,28 +7749,28 @@
         <v>2571.278360858796</v>
       </c>
       <c r="R45" t="n">
-        <v>2571.278360858796</v>
+        <v>2570.790874689347</v>
       </c>
       <c r="S45" t="n">
-        <v>2441.737820548453</v>
+        <v>2441.250334379004</v>
       </c>
       <c r="T45" t="n">
-        <v>2249.072544229682</v>
+        <v>2248.585058060233</v>
       </c>
       <c r="U45" t="n">
-        <v>2021.004333773293</v>
+        <v>2020.516847603844</v>
       </c>
       <c r="V45" t="n">
-        <v>1785.85222554155</v>
+        <v>1785.364739372101</v>
       </c>
       <c r="W45" t="n">
-        <v>1531.614868813348</v>
+        <v>1531.1273826439</v>
       </c>
       <c r="X45" t="n">
-        <v>1323.763368607815</v>
+        <v>1323.275882438367</v>
       </c>
       <c r="Y45" t="n">
-        <v>1116.003069842862</v>
+        <v>1115.515583673413</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.7675052106106</v>
+        <v>772.7675052106108</v>
       </c>
       <c r="C46" t="n">
-        <v>651.4905189527703</v>
+        <v>651.4905189527705</v>
       </c>
       <c r="D46" t="n">
-        <v>549.0330762105012</v>
+        <v>549.0330762105013</v>
       </c>
       <c r="E46" t="n">
-        <v>448.7791792981748</v>
+        <v>448.7791792981749</v>
       </c>
       <c r="F46" t="n">
         <v>349.5484284703311</v>
@@ -7801,31 +7801,31 @@
         <v>130.9009708617197</v>
       </c>
       <c r="I46" t="n">
-        <v>81.09515440648146</v>
+        <v>81.09515440648147</v>
       </c>
       <c r="J46" t="n">
-        <v>172.607509982949</v>
+        <v>172.6075099829489</v>
       </c>
       <c r="K46" t="n">
-        <v>422.7778787332639</v>
+        <v>422.7778787332638</v>
       </c>
       <c r="L46" t="n">
-        <v>785.3733186276909</v>
+        <v>785.3733186276907</v>
       </c>
       <c r="M46" t="n">
-        <v>1175.529305356425</v>
+        <v>1175.529305356426</v>
       </c>
       <c r="N46" t="n">
         <v>1562.953549096836</v>
       </c>
       <c r="O46" t="n">
-        <v>1908.352063316157</v>
+        <v>1908.352063316158</v>
       </c>
       <c r="P46" t="n">
         <v>2187.121117418551</v>
       </c>
       <c r="Q46" t="n">
-        <v>2311.061937314531</v>
+        <v>2311.061937314532</v>
       </c>
       <c r="R46" t="n">
         <v>2268.682346761082</v>
@@ -7849,7 +7849,7 @@
         <v>1079.890155844247</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.7567733707835</v>
+        <v>906.7567733707839</v>
       </c>
     </row>
   </sheetData>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>97.72739018602022</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>97.72739018601936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.309970596937177</v>
+        <v>4.309970596937205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>284.6158390714562</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>175.170924948067</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>177.5176293477493</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>240.8873448210491</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.502457125369851</v>
+        <v>8.985068433123278</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4826113077538707</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>88.18525182164149</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>75.29778076865614</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>287.0013468593275</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>346.6142445198237</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>287.0013468593275</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>284.6158390714562</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>284.6158390714562</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>118.5161562564875</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.502457125369851</v>
+        <v>8.98506843312377</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4826113077538707</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>177.5176293477502</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>31.53048313006096</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.502457125369865</v>
+        <v>8.98506843312377</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4826113077538707</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>127.6858329802308</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>134.299253859919</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>287.0013468593275</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>141.014200641639</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.502457125369851</v>
+        <v>8.985068433123784</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4826113077538707</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>231.0660282793221</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>287.0013468593278</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>31.53048313006147</v>
       </c>
       <c r="R44" t="n">
-        <v>30.91905856082762</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.502457125369851</v>
+        <v>8.985068433123784</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4826113077538707</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11.8787666075217</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>330.7053592702121</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.0471644997601</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.41291089516372</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.4670786893276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0052070666065</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>145.2552845689498</v>
       </c>
       <c r="I13" t="n">
-        <v>98.04453903715179</v>
+        <v>98.04453903715181</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>91.34921372338525</v>
       </c>
       <c r="U13" t="n">
-        <v>59.97773412329475</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>320.5972577974912</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>256.4231924848727</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7124899181491</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.97116202262887</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4207834441023</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>109.8371819923576</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0303952252506</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7957972140067</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.49036299405179</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.13839935128098</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8489636427894</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.2755522063961</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.44124770082999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>20481.90846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="E2" t="n">
-        <v>16698.91924976503</v>
+        <v>16698.91924976502</v>
       </c>
       <c r="F2" t="n">
         <v>18453.09164181906</v>
@@ -26329,22 +26329,22 @@
         <v>20526.04424660708</v>
       </c>
       <c r="H2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
@@ -26375,10 +26375,10 @@
         <v>1087282.656037509</v>
       </c>
       <c r="F3" t="n">
-        <v>85839.83636892779</v>
+        <v>85839.83636892807</v>
       </c>
       <c r="G3" t="n">
-        <v>37746.08376269277</v>
+        <v>37746.08376269278</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37746.08376269276</v>
+        <v>37746.08376269278</v>
       </c>
       <c r="M3" t="n">
-        <v>197659.6235837532</v>
+        <v>197659.6235837531</v>
       </c>
       <c r="N3" t="n">
-        <v>54012.64957896533</v>
+        <v>54012.64957896539</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>10075.66564385264</v>
+        <v>10075.66564385265</v>
       </c>
       <c r="F4" t="n">
-        <v>27751.73696169203</v>
+        <v>27751.73696169204</v>
       </c>
       <c r="G4" t="n">
-        <v>75195.14459642253</v>
+        <v>75195.14459642251</v>
       </c>
       <c r="H4" t="n">
-        <v>75195.14459642256</v>
+        <v>75195.14459642254</v>
       </c>
       <c r="I4" t="n">
         <v>75195.14459642256</v>
       </c>
       <c r="J4" t="n">
-        <v>75195.14459642254</v>
+        <v>75195.14459642257</v>
       </c>
       <c r="K4" t="n">
-        <v>75195.14459642256</v>
+        <v>75195.14459642257</v>
       </c>
       <c r="L4" t="n">
         <v>75195.14459642256</v>
@@ -26454,10 +26454,10 @@
         <v>75195.14459642253</v>
       </c>
       <c r="O4" t="n">
-        <v>75195.14459642256</v>
+        <v>75195.14459642257</v>
       </c>
       <c r="P4" t="n">
-        <v>75195.14459642256</v>
+        <v>75195.14459642257</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>71301.27540871044</v>
+        <v>71301.27540871041</v>
       </c>
       <c r="F5" t="n">
-        <v>85333.99717020098</v>
+        <v>85333.99717020099</v>
       </c>
       <c r="G5" t="n">
-        <v>89300.59156500826</v>
+        <v>89300.59156500828</v>
       </c>
       <c r="H5" t="n">
         <v>89300.59156500828</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427918.0901450329</v>
+        <v>-427922.503722901</v>
       </c>
       <c r="C6" t="n">
-        <v>-427918.090145033</v>
+        <v>-427922.5037229011</v>
       </c>
       <c r="D6" t="n">
-        <v>-427918.0901450329</v>
+        <v>-427922.503722901</v>
       </c>
       <c r="E6" t="n">
-        <v>-1151960.677840307</v>
+        <v>-1152343.390339991</v>
       </c>
       <c r="F6" t="n">
-        <v>-180472.4788590017</v>
+        <v>-180679.7741194809</v>
       </c>
       <c r="G6" t="n">
         <v>-181715.7756775165</v>
       </c>
       <c r="H6" t="n">
-        <v>-143969.6919148238</v>
+        <v>-143969.6919148237</v>
       </c>
       <c r="I6" t="n">
         <v>-143969.6919148238</v>
       </c>
       <c r="J6" t="n">
-        <v>-143969.6919148237</v>
+        <v>-143969.6919148238</v>
       </c>
       <c r="K6" t="n">
         <v>-143969.6919148238</v>
@@ -26552,10 +26552,10 @@
         <v>-181715.7756775165</v>
       </c>
       <c r="M6" t="n">
-        <v>-341629.3154985769</v>
+        <v>-341629.3154985768</v>
       </c>
       <c r="N6" t="n">
-        <v>-197982.341493789</v>
+        <v>-197982.3414937891</v>
       </c>
       <c r="O6" t="n">
         <v>-143969.6919148238</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H2" t="n">
         <v>47.18260470336597</v>
       </c>
       <c r="I2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="J2" t="n">
+        <v>47.18260470336598</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.18260470336598</v>
+      </c>
+      <c r="L2" t="n">
         <v>47.18260470336597</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.18260470336597</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.18260470336595</v>
       </c>
       <c r="M2" t="n">
         <v>47.18260470336599</v>
       </c>
       <c r="N2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="O2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="P2" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>793.1639282826646</v>
+        <v>793.1639282826644</v>
       </c>
       <c r="F4" t="n">
         <v>1013.689430081018</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1058.573787574515</v>
       </c>
       <c r="F3" t="n">
-        <v>28.65923175003036</v>
+        <v>28.65923175003059</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>793.1639282826646</v>
+        <v>793.1639282826644</v>
       </c>
       <c r="F4" t="n">
-        <v>220.5255017983535</v>
+        <v>220.5255017983538</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>793.1639282826645</v>
+        <v>793.1639282826644</v>
       </c>
       <c r="N4" t="n">
-        <v>220.5255017983535</v>
+        <v>220.525501798354</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>793.1639282826646</v>
+        <v>793.1639282826644</v>
       </c>
       <c r="N4" t="n">
-        <v>220.5255017983535</v>
+        <v>220.5255017983538</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I17" t="n">
-        <v>41.97116202262887</v>
+        <v>41.97116202262885</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="J19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="K19" t="n">
-        <v>47.18260470336617</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="L19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="M19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="N19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="O19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="P19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="R19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="S19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>47.18260470336597</v>
       </c>
       <c r="J22" t="n">
-        <v>47.18260470336597</v>
+        <v>47.1826047033657</v>
       </c>
       <c r="K22" t="n">
         <v>47.18260470336597</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I23" t="n">
         <v>41.97116202262887</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="J25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="K25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="L25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336566</v>
       </c>
       <c r="M25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="N25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="O25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="P25" t="n">
-        <v>47.18260470336617</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="R25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="S25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="C26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="D26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="E26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="F26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="G26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="H26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="I26" t="n">
         <v>41.97116202262887</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="T26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="U26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="V26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="W26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="X26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="C28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="D28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="E28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="F28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="G28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="H28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="I28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="J28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="K28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="L28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="M28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="N28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="O28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="P28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="R28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="S28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="T28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="U28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="V28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="W28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="X28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="C29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="D29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="E29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="F29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="G29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="H29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="I29" t="n">
         <v>41.97116202262887</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="T29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="U29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="V29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="W29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="X29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="C31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="D31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="E31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="F31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="G31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="H31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="J31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="K31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="L31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="M31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="N31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="O31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="P31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="R31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="S31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="T31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="U31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="V31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="W31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="X31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.18260470336597</v>
+        <v>47.18260470336598</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I32" t="n">
         <v>41.97116202262887</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="D34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="E34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="F34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="G34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="H34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="I34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="J34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="K34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="L34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="M34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="N34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="O34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="P34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="R34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="S34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="T34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="U34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="V34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="W34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="X34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.18260470336595</v>
+        <v>47.18260470336597</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="C38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="D38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="E38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="F38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="G38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="H38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="I38" t="n">
         <v>41.97116202262887</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="T38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="U38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="V38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="W38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="X38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="C40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="D40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="E40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="F40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="G40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="H40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="I40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="J40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="K40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="L40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="M40" t="n">
-        <v>47.18260470336605</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="N40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="O40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="P40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="R40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="S40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="T40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="U40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="V40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="W40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="X40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336593</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="C41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="D41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="E41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="F41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="G41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="H41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="I41" t="n">
         <v>41.97116202262887</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="T41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="U41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="V41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="W41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="X41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="C43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="D43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="E43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="F43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="G43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="H43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="J43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="L43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="M43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="N43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="O43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="P43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.18260470336573</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="R43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="S43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="T43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="U43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="V43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="W43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="X43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.18260470336596</v>
+        <v>47.18260470336599</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="C44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="D44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="E44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="F44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="G44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="H44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="I44" t="n">
         <v>41.97116202262887</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="T44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="U44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="V44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="W44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="X44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="D46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="E46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="F46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="G46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="H46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="I46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="J46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="L46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="M46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="N46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="O46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="P46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="R46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="S46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="T46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="U46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="V46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="W46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="X46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.18260470336598</v>
+        <v>47.18260470336595</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.255573015374931</v>
+        <v>4.25557301537493</v>
       </c>
       <c r="H11" t="n">
         <v>43.58238714370852</v>
@@ -31759,40 +31759,40 @@
         <v>164.0629786752422</v>
       </c>
       <c r="J11" t="n">
-        <v>361.1864402136784</v>
+        <v>361.1864402136783</v>
       </c>
       <c r="K11" t="n">
-        <v>541.3248459544993</v>
+        <v>541.3248459544992</v>
       </c>
       <c r="L11" t="n">
-        <v>671.56133862378</v>
+        <v>671.5613386237799</v>
       </c>
       <c r="M11" t="n">
-        <v>747.2413852359539</v>
+        <v>747.2413852359538</v>
       </c>
       <c r="N11" t="n">
-        <v>759.332532065888</v>
+        <v>759.3325320658878</v>
       </c>
       <c r="O11" t="n">
-        <v>717.0161778942535</v>
+        <v>717.0161778942534</v>
       </c>
       <c r="P11" t="n">
-        <v>611.9567190771847</v>
+        <v>611.9567190771846</v>
       </c>
       <c r="Q11" t="n">
-        <v>459.5540104640699</v>
+        <v>459.5540104640698</v>
       </c>
       <c r="R11" t="n">
         <v>267.3191384270457</v>
       </c>
       <c r="S11" t="n">
-        <v>96.97387008785634</v>
+        <v>96.97387008785631</v>
       </c>
       <c r="T11" t="n">
         <v>18.62877087480377</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3404458412299944</v>
+        <v>0.3404458412299943</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.276932297801787</v>
+        <v>2.276932297801786</v>
       </c>
       <c r="H12" t="n">
         <v>21.99037245508568</v>
       </c>
       <c r="I12" t="n">
-        <v>78.39437955150889</v>
+        <v>78.39437955150888</v>
       </c>
       <c r="J12" t="n">
         <v>215.1201694164399</v>
       </c>
       <c r="K12" t="n">
-        <v>367.6746333691596</v>
+        <v>367.6746333691595</v>
       </c>
       <c r="L12" t="n">
-        <v>494.3839184327959</v>
+        <v>494.3839184327958</v>
       </c>
       <c r="M12" t="n">
-        <v>576.9227142281105</v>
+        <v>576.9227142281104</v>
       </c>
       <c r="N12" t="n">
-        <v>592.1921417866147</v>
+        <v>592.1921417866146</v>
       </c>
       <c r="O12" t="n">
-        <v>541.7401156090067</v>
+        <v>541.7401156090066</v>
       </c>
       <c r="P12" t="n">
-        <v>434.7942034284833</v>
+        <v>434.7942034284832</v>
       </c>
       <c r="Q12" t="n">
-        <v>290.648410505365</v>
+        <v>290.6484105053649</v>
       </c>
       <c r="R12" t="n">
-        <v>141.3695333670268</v>
+        <v>141.3695333670267</v>
       </c>
       <c r="S12" t="n">
-        <v>42.29301877715158</v>
+        <v>42.29301877715157</v>
       </c>
       <c r="T12" t="n">
-        <v>9.177635007367725</v>
+        <v>9.177635007367723</v>
       </c>
       <c r="U12" t="n">
         <v>0.1497981774869597</v>
@@ -31911,22 +31911,22 @@
         <v>1.908903551363879</v>
       </c>
       <c r="H13" t="n">
-        <v>16.97188793848978</v>
+        <v>16.97188793848977</v>
       </c>
       <c r="I13" t="n">
-        <v>57.40593589010649</v>
+        <v>57.40593589010648</v>
       </c>
       <c r="J13" t="n">
         <v>134.9594810814262</v>
       </c>
       <c r="K13" t="n">
-        <v>221.7798853311852</v>
+        <v>221.7798853311851</v>
       </c>
       <c r="L13" t="n">
-        <v>283.8018970818626</v>
+        <v>283.8018970818625</v>
       </c>
       <c r="M13" t="n">
-        <v>299.2293085106124</v>
+        <v>299.2293085106123</v>
       </c>
       <c r="N13" t="n">
         <v>292.11430436462</v>
@@ -31935,19 +31935,19 @@
         <v>269.81484015096</v>
       </c>
       <c r="P13" t="n">
-        <v>230.8732077031367</v>
+        <v>230.8732077031366</v>
       </c>
       <c r="Q13" t="n">
         <v>159.8446419237517</v>
       </c>
       <c r="R13" t="n">
-        <v>85.83124513677949</v>
+        <v>85.83124513677947</v>
       </c>
       <c r="S13" t="n">
-        <v>33.26698279967777</v>
+        <v>33.26698279967776</v>
       </c>
       <c r="T13" t="n">
-        <v>8.156224264918391</v>
+        <v>8.156224264918389</v>
       </c>
       <c r="U13" t="n">
         <v>0.1041220118925753</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.370786007334852</v>
+        <v>4.370786007334853</v>
       </c>
       <c r="H17" t="n">
         <v>44.76231219761807</v>
       </c>
       <c r="I17" t="n">
-        <v>168.504727547777</v>
+        <v>168.5047275477771</v>
       </c>
       <c r="J17" t="n">
-        <v>370.9649988900367</v>
+        <v>370.9649988900368</v>
       </c>
       <c r="K17" t="n">
-        <v>555.9803705805211</v>
+        <v>555.9803705805213</v>
       </c>
       <c r="L17" t="n">
-        <v>689.7428128524953</v>
+        <v>689.7428128524954</v>
       </c>
       <c r="M17" t="n">
-        <v>767.4717785104364</v>
+        <v>767.4717785104365</v>
       </c>
       <c r="N17" t="n">
-        <v>779.8902742537766</v>
+        <v>779.8902742537767</v>
       </c>
       <c r="O17" t="n">
-        <v>736.4282708933406</v>
+        <v>736.4282708933407</v>
       </c>
       <c r="P17" t="n">
-        <v>628.5244913372613</v>
+        <v>628.5244913372615</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.9957174495818</v>
+        <v>471.9957174495819</v>
       </c>
       <c r="R17" t="n">
-        <v>274.5563865332481</v>
+        <v>274.5563865332482</v>
       </c>
       <c r="S17" t="n">
-        <v>99.59928614214304</v>
+        <v>99.59928614214306</v>
       </c>
       <c r="T17" t="n">
-        <v>19.13311574710832</v>
+        <v>19.13311574710833</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3496628805867881</v>
+        <v>0.3496628805867882</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.338576683075437</v>
       </c>
       <c r="H18" t="n">
-        <v>22.58572743917593</v>
+        <v>22.58572743917594</v>
       </c>
       <c r="I18" t="n">
-        <v>80.51678492167623</v>
+        <v>80.51678492167626</v>
       </c>
       <c r="J18" t="n">
         <v>220.9442119742456</v>
@@ -32318,31 +32318,31 @@
         <v>377.6288497402999</v>
       </c>
       <c r="L18" t="n">
-        <v>507.7685907703926</v>
+        <v>507.7685907703927</v>
       </c>
       <c r="M18" t="n">
-        <v>592.5419955318771</v>
+        <v>592.5419955318772</v>
       </c>
       <c r="N18" t="n">
-        <v>608.22481898987</v>
+        <v>608.2248189898701</v>
       </c>
       <c r="O18" t="n">
-        <v>556.406883012251</v>
+        <v>556.4068830122511</v>
       </c>
       <c r="P18" t="n">
-        <v>446.565577314642</v>
+        <v>446.5655773146422</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.5172622115242</v>
+        <v>298.5172622115243</v>
       </c>
       <c r="R18" t="n">
         <v>145.1968926562101</v>
       </c>
       <c r="S18" t="n">
-        <v>43.43803619659855</v>
+        <v>43.43803619659856</v>
       </c>
       <c r="T18" t="n">
-        <v>9.42610513923827</v>
+        <v>9.426105139238272</v>
       </c>
       <c r="U18" t="n">
         <v>0.1538537291496999</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.960584133208196</v>
+        <v>1.960584133208197</v>
       </c>
       <c r="H19" t="n">
-        <v>17.43137529343288</v>
+        <v>17.43137529343289</v>
       </c>
       <c r="I19" t="n">
-        <v>58.9601119332065</v>
+        <v>58.96011193320651</v>
       </c>
       <c r="J19" t="n">
-        <v>138.6132982178194</v>
+        <v>138.6132982178195</v>
       </c>
       <c r="K19" t="n">
         <v>227.7842292945522</v>
@@ -32403,7 +32403,7 @@
         <v>307.3304746264448</v>
       </c>
       <c r="N19" t="n">
-        <v>300.0228428572144</v>
+        <v>300.0228428572145</v>
       </c>
       <c r="O19" t="n">
         <v>277.1196554829186</v>
@@ -32412,16 +32412,16 @@
         <v>237.1237391654712</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.1721859180063</v>
+        <v>164.1721859180064</v>
       </c>
       <c r="R19" t="n">
-        <v>88.1549920258885</v>
+        <v>88.15499202588852</v>
       </c>
       <c r="S19" t="n">
         <v>34.16763439418283</v>
       </c>
       <c r="T19" t="n">
-        <v>8.377041296435017</v>
+        <v>8.377041296435019</v>
       </c>
       <c r="U19" t="n">
         <v>0.1069409527204472</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>180.1405356869921</v>
+        <v>180.140535686992</v>
       </c>
       <c r="K11" t="n">
-        <v>321.2349949095188</v>
+        <v>321.2349949095187</v>
       </c>
       <c r="L11" t="n">
-        <v>435.7949236537928</v>
+        <v>435.7949236537926</v>
       </c>
       <c r="M11" t="n">
-        <v>516.8951520086812</v>
+        <v>516.8951520086811</v>
       </c>
       <c r="N11" t="n">
-        <v>529.919468469297</v>
+        <v>529.9194684692968</v>
       </c>
       <c r="O11" t="n">
-        <v>486.9179664725667</v>
+        <v>486.9179664725666</v>
       </c>
       <c r="P11" t="n">
-        <v>380.7237233219152</v>
+        <v>380.7237233219151</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.2483205896204</v>
+        <v>237.2483205896203</v>
       </c>
       <c r="R11" t="n">
-        <v>51.73360061291362</v>
+        <v>51.73360061291356</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.2825427497732</v>
+        <v>88.28254274977317</v>
       </c>
       <c r="K12" t="n">
-        <v>229.8331943948006</v>
+        <v>327.5605845808207</v>
       </c>
       <c r="L12" t="n">
-        <v>355.8295386529217</v>
+        <v>355.8295386529216</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5160704921116</v>
+        <v>434.7886803060921</v>
       </c>
       <c r="N12" t="n">
-        <v>460.8504297032814</v>
+        <v>460.8504297032813</v>
       </c>
       <c r="O12" t="n">
-        <v>399.1438711645623</v>
+        <v>399.1438711645621</v>
       </c>
       <c r="P12" t="n">
-        <v>300.8197960141531</v>
+        <v>300.819796014153</v>
       </c>
       <c r="Q12" t="n">
         <v>150.6666364193434</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.60030096475347</v>
+        <v>41.60030096475344</v>
       </c>
       <c r="K13" t="n">
         <v>199.5103935053023</v>
       </c>
       <c r="L13" t="n">
-        <v>311.3919223421788</v>
+        <v>311.3919223421786</v>
       </c>
       <c r="M13" t="n">
-        <v>338.813185472453</v>
+        <v>338.8131854724529</v>
       </c>
       <c r="N13" t="n">
         <v>336.2464767438486</v>
@@ -35583,10 +35583,10 @@
         <v>294.3999680649997</v>
       </c>
       <c r="P13" t="n">
-        <v>228.1517669680302</v>
+        <v>228.1517669680301</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.68259867205735</v>
+        <v>73.68259867205732</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K14" t="n">
-        <v>660.0359321067053</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L14" t="n">
         <v>453.976397882508</v>
       </c>
       <c r="M14" t="n">
-        <v>537.1255452831637</v>
+        <v>986.6390787759962</v>
       </c>
       <c r="N14" t="n">
-        <v>550.4772106571857</v>
+        <v>835.0930497286419</v>
       </c>
       <c r="O14" t="n">
         <v>506.3300594716538</v>
       </c>
       <c r="P14" t="n">
-        <v>572.4624205300588</v>
+        <v>397.2914955819918</v>
       </c>
       <c r="Q14" t="n">
         <v>249.6900275751323</v>
       </c>
       <c r="R14" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.0157095354242</v>
+        <v>359.0157095354243</v>
       </c>
       <c r="K17" t="n">
-        <v>513.4081488832899</v>
+        <v>660.0359321067054</v>
       </c>
       <c r="L17" t="n">
-        <v>453.976397882508</v>
+        <v>453.9763978825081</v>
       </c>
       <c r="M17" t="n">
-        <v>537.1255452831637</v>
+        <v>778.0128901042128</v>
       </c>
       <c r="N17" t="n">
-        <v>550.4772106571857</v>
+        <v>550.4772106571859</v>
       </c>
       <c r="O17" t="n">
-        <v>506.3300594716538</v>
+        <v>506.330059471654</v>
       </c>
       <c r="P17" t="n">
-        <v>719.0902037534745</v>
+        <v>397.2914955819919</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.6900275751323</v>
+        <v>249.6900275751324</v>
       </c>
       <c r="R17" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911608</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.10658530757891</v>
+        <v>94.10658530757894</v>
       </c>
       <c r="K18" t="n">
         <v>239.7874107659409</v>
       </c>
       <c r="L18" t="n">
-        <v>369.2142109905184</v>
+        <v>369.2142109905186</v>
       </c>
       <c r="M18" t="n">
-        <v>450.4079616098588</v>
+        <v>450.4079616098589</v>
       </c>
       <c r="N18" t="n">
-        <v>476.8831069065367</v>
+        <v>476.8831069065368</v>
       </c>
       <c r="O18" t="n">
-        <v>413.8106385678066</v>
+        <v>413.8106385678067</v>
       </c>
       <c r="P18" t="n">
-        <v>312.5911699003118</v>
+        <v>312.5911699003119</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.5354881255027</v>
+        <v>158.5354881255028</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451267</v>
       </c>
       <c r="K19" t="n">
-        <v>252.6973421720355</v>
+        <v>252.6973421720353</v>
       </c>
       <c r="L19" t="n">
         <v>366.2580200953807</v>
       </c>
       <c r="M19" t="n">
-        <v>394.0969562916513</v>
+        <v>394.0969562916514</v>
       </c>
       <c r="N19" t="n">
-        <v>391.337619939809</v>
+        <v>391.3376199398091</v>
       </c>
       <c r="O19" t="n">
-        <v>348.8873881003242</v>
+        <v>348.8873881003243</v>
       </c>
       <c r="P19" t="n">
-        <v>281.5849031337306</v>
+        <v>281.5849031337307</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.1927473696779</v>
+        <v>125.192747369678</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>189.9190943633504</v>
       </c>
       <c r="K20" t="n">
-        <v>660.0359321067053</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L20" t="n">
         <v>453.976397882508</v>
@@ -36133,16 +36133,16 @@
         <v>550.4772106571857</v>
       </c>
       <c r="O20" t="n">
-        <v>594.5153112932953</v>
+        <v>887.1302407343992</v>
       </c>
       <c r="P20" t="n">
-        <v>719.0902037534745</v>
+        <v>472.5892763506479</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.6900275751323</v>
+        <v>462.005018235037</v>
       </c>
       <c r="R20" t="n">
-        <v>58.97084871911602</v>
+        <v>124.6872685920985</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451237</v>
       </c>
       <c r="K22" t="n">
         <v>252.6973421720353</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K23" t="n">
-        <v>622.8918663948681</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L23" t="n">
-        <v>453.976397882508</v>
+        <v>800.5906424023317</v>
       </c>
       <c r="M23" t="n">
         <v>537.1255452831637</v>
@@ -36373,10 +36373,10 @@
         <v>506.3300594716538</v>
       </c>
       <c r="P23" t="n">
-        <v>397.2914955819918</v>
+        <v>719.0902037534745</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.005018235037</v>
+        <v>249.6900275751323</v>
       </c>
       <c r="R23" t="n">
         <v>124.6872685920985</v>
@@ -36519,7 +36519,7 @@
         <v>252.6973421720353</v>
       </c>
       <c r="L25" t="n">
-        <v>366.2580200953807</v>
+        <v>366.2580200953804</v>
       </c>
       <c r="M25" t="n">
         <v>394.0969562916513</v>
@@ -36531,7 +36531,7 @@
         <v>348.8873881003242</v>
       </c>
       <c r="P25" t="n">
-        <v>281.5849031337308</v>
+        <v>281.5849031337307</v>
       </c>
       <c r="Q25" t="n">
         <v>125.1927473696779</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K26" t="n">
-        <v>622.8918663948681</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L26" t="n">
         <v>453.976397882508</v>
       </c>
       <c r="M26" t="n">
-        <v>537.1255452831637</v>
+        <v>986.6390787759962</v>
       </c>
       <c r="N26" t="n">
         <v>550.4772106571857</v>
       </c>
       <c r="O26" t="n">
-        <v>506.3300594716538</v>
+        <v>790.94589854311</v>
       </c>
       <c r="P26" t="n">
         <v>397.2914955819918</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.005018235037</v>
+        <v>249.6900275751323</v>
       </c>
       <c r="R26" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451266</v>
       </c>
       <c r="K28" t="n">
         <v>252.6973421720353</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K29" t="n">
         <v>335.8905195355406</v>
@@ -36838,22 +36838,22 @@
         <v>453.976397882508</v>
       </c>
       <c r="M29" t="n">
-        <v>537.1255452831637</v>
+        <v>986.6390787759962</v>
       </c>
       <c r="N29" t="n">
-        <v>550.4772106571857</v>
+        <v>835.0930497286419</v>
       </c>
       <c r="O29" t="n">
-        <v>887.1302407343992</v>
+        <v>506.3300594716538</v>
       </c>
       <c r="P29" t="n">
         <v>397.2914955819918</v>
       </c>
       <c r="Q29" t="n">
-        <v>368.2061838316199</v>
+        <v>249.6900275751323</v>
       </c>
       <c r="R29" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451266</v>
       </c>
       <c r="K31" t="n">
         <v>252.6973421720353</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K32" t="n">
-        <v>513.4081488832908</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L32" t="n">
         <v>453.976397882508</v>
@@ -37081,16 +37081,16 @@
         <v>550.4772106571857</v>
       </c>
       <c r="O32" t="n">
-        <v>506.3300594716538</v>
+        <v>887.1302407343992</v>
       </c>
       <c r="P32" t="n">
         <v>719.0902037534745</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.6900275751323</v>
+        <v>281.2205107051933</v>
       </c>
       <c r="R32" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.43672280451263</v>
+        <v>92.43672280451264</v>
       </c>
       <c r="K34" t="n">
         <v>252.6973421720353</v>
@@ -37236,13 +37236,13 @@
         <v>394.0969562916513</v>
       </c>
       <c r="N34" t="n">
-        <v>391.3376199398089</v>
+        <v>391.337619939809</v>
       </c>
       <c r="O34" t="n">
         <v>348.8873881003242</v>
       </c>
       <c r="P34" t="n">
-        <v>281.5849031337306</v>
+        <v>281.5849031337307</v>
       </c>
       <c r="Q34" t="n">
         <v>125.1927473696779</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.9190943633504</v>
+        <v>359.0157095354242</v>
       </c>
       <c r="K35" t="n">
         <v>335.8905195355406</v>
@@ -37312,22 +37312,22 @@
         <v>453.976397882508</v>
       </c>
       <c r="M35" t="n">
-        <v>537.1255452831637</v>
+        <v>664.8113782633944</v>
       </c>
       <c r="N35" t="n">
-        <v>550.4772106571857</v>
+        <v>987.8241350691699</v>
       </c>
       <c r="O35" t="n">
-        <v>640.6293133315728</v>
+        <v>506.3300594716538</v>
       </c>
       <c r="P35" t="n">
-        <v>719.0902037534745</v>
+        <v>397.2914955819918</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.005018235037</v>
+        <v>249.6900275751323</v>
       </c>
       <c r="R35" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K38" t="n">
-        <v>622.8918663948681</v>
+        <v>335.8905195355406</v>
       </c>
       <c r="L38" t="n">
         <v>453.976397882508</v>
@@ -37552,10 +37552,10 @@
         <v>537.1255452831637</v>
       </c>
       <c r="N38" t="n">
-        <v>550.4772106571857</v>
+        <v>691.4914112988247</v>
       </c>
       <c r="O38" t="n">
-        <v>506.3300594716538</v>
+        <v>887.1302407343992</v>
       </c>
       <c r="P38" t="n">
         <v>397.2914955819918</v>
@@ -37564,7 +37564,7 @@
         <v>462.005018235037</v>
       </c>
       <c r="R38" t="n">
-        <v>124.6872685920985</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451261</v>
       </c>
       <c r="K40" t="n">
         <v>252.6973421720353</v>
@@ -37707,10 +37707,10 @@
         <v>366.2580200953807</v>
       </c>
       <c r="M40" t="n">
-        <v>394.0969562916514</v>
+        <v>394.0969562916513</v>
       </c>
       <c r="N40" t="n">
-        <v>391.337619939809</v>
+        <v>391.3376199398089</v>
       </c>
       <c r="O40" t="n">
         <v>348.8873881003242</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K41" t="n">
         <v>335.8905195355406</v>
       </c>
       <c r="L41" t="n">
-        <v>453.976397882508</v>
+        <v>685.0424261618301</v>
       </c>
       <c r="M41" t="n">
         <v>537.1255452831637</v>
       </c>
       <c r="N41" t="n">
-        <v>550.4772106571857</v>
+        <v>987.8241350691699</v>
       </c>
       <c r="O41" t="n">
         <v>506.3300594716538</v>
       </c>
       <c r="P41" t="n">
-        <v>684.2928424413196</v>
+        <v>397.2914955819918</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.005018235037</v>
+        <v>249.6900275751323</v>
       </c>
       <c r="R41" t="n">
         <v>124.6872685920985</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.43672280451264</v>
+        <v>92.43672280451267</v>
       </c>
       <c r="K43" t="n">
         <v>252.6973421720353</v>
@@ -37953,10 +37953,10 @@
         <v>348.8873881003242</v>
       </c>
       <c r="P43" t="n">
-        <v>281.5849031337306</v>
+        <v>281.5849031337307</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.1927473696777</v>
+        <v>125.1927473696779</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.0157095354242</v>
+        <v>189.9190943633504</v>
       </c>
       <c r="K44" t="n">
         <v>335.8905195355406</v>
@@ -38029,16 +38029,16 @@
         <v>550.4772106571857</v>
       </c>
       <c r="O44" t="n">
-        <v>506.3300594716538</v>
+        <v>887.1302407343992</v>
       </c>
       <c r="P44" t="n">
         <v>719.0902037534745</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.005018235037</v>
+        <v>281.2205107051938</v>
       </c>
       <c r="R44" t="n">
-        <v>89.88990727994364</v>
+        <v>58.97084871911602</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.43672280451266</v>
+        <v>92.43672280451263</v>
       </c>
       <c r="K46" t="n">
         <v>252.6973421720353</v>
@@ -38184,13 +38184,13 @@
         <v>394.0969562916513</v>
       </c>
       <c r="N46" t="n">
-        <v>391.337619939809</v>
+        <v>391.3376199398089</v>
       </c>
       <c r="O46" t="n">
         <v>348.8873881003242</v>
       </c>
       <c r="P46" t="n">
-        <v>281.5849031337307</v>
+        <v>281.5849031337306</v>
       </c>
       <c r="Q46" t="n">
         <v>125.1927473696779</v>
